--- a/apps/tournament_activity/backend/templates/wards/23_江戸川区/会員登録表フォーマット.xlsx
+++ b/apps/tournament_activity/backend/templates/wards/23_江戸川区/会員登録表フォーマット.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>江戸川区ソフトテニス連盟</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>TEL.</t>
+  </si>
+  <si>
+    <t>090-8118-7936</t>
   </si>
   <si>
     <t>№</t>
@@ -593,7 +596,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1062,7 +1065,9 @@
       <c r="J4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="L4" s="26"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1081,31 +1086,31 @@
     </row>
     <row r="5" ht="24.0" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
       <c r="K5" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="3"/>
